--- a/Result.xlsx
+++ b/Result.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t xml:space="preserve">Dataset </t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>BPI12</t>
+  </si>
+  <si>
+    <t>BPI19</t>
   </si>
 </sst>
 </file>
@@ -256,31 +259,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,22 +591,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A14756" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" style="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -607,181 +623,206 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="14">
         <v>87.083600000000004</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>87.027500000000003</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>86.819299999999998</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <v>78.931700000000006</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="8"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="7">
         <v>1.9623999999999999</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="13">
         <v>1.8895999999999999</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="7">
         <v>2.0238999999999998</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="8">
         <v>2.4782000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12" t="s">
+      <c r="A4" s="18"/>
+      <c r="B4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="10">
         <v>471</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="10">
         <v>1106</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="10">
         <v>395</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="11">
         <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>82.556799999999996</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="14">
         <v>82.880499999999998</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>82.380200000000002</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>80.525499999999994</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="8"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="13">
         <v>2.2972000000000001</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="7">
         <v>2.3153000000000001</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="7">
         <v>2.2835999999999999</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="8">
         <v>2.8961000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="18"/>
+      <c r="B7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="10">
         <v>85</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="10">
         <v>147</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="10">
         <v>60</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="11">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="14">
         <v>68.472499999999997</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="12">
         <v>68.071709999999996</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>66.3994</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <v>59.456000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="8"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="7">
         <v>1.2627999999999999</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="13">
         <v>1.2522</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="7">
         <v>1.2968999999999999</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="8">
         <v>1.4975000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12" t="s">
+      <c r="A10" s="18"/>
+      <c r="B10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="10">
         <v>612</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="10">
         <v>969</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="10">
         <v>347</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="11">
         <v>739</v>
       </c>
     </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="22">
+        <v>86.89</v>
+      </c>
+    </row>
     <row r="12" spans="1:6">
+      <c r="A12" s="20"/>
+      <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="22">
+        <v>1.98</v>
+      </c>
       <c r="D12" s="1"/>
     </row>
+    <row r="13" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A13" s="20"/>
+      <c r="B13" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
